--- a/Exp1_AIS_BSN.xlsx
+++ b/Exp1_AIS_BSN.xlsx
@@ -85,82 +85,82 @@
     <t xml:space="preserve">CPU (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">P7</t>
+    <t xml:space="preserve">P1</t>
   </si>
   <si>
     <t xml:space="preserve">ROS::Node</t>
   </si>
   <si>
-    <t xml:space="preserve">P7_oximeter.launch</t>
+    <t xml:space="preserve">P1_oximeter.launch</t>
   </si>
   <si>
     <t xml:space="preserve">ROS::Log</t>
   </si>
   <si>
-    <t xml:space="preserve">oximeter_p7.log</t>
+    <t xml:space="preserve">oximeter_P1.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P7_ecg.launch</t>
+    <t xml:space="preserve">P1_ecg.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">ecg_p7.log</t>
+    <t xml:space="preserve">ecg_P1.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P7_thermometer.launch</t>
+    <t xml:space="preserve">P1_thermometer.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">thermometer_p7.log</t>
+    <t xml:space="preserve">thermometer_P1.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P8</t>
+    <t xml:space="preserve">P2</t>
   </si>
   <si>
-    <t xml:space="preserve">P8_oximeter.launch</t>
+    <t xml:space="preserve">P2_oximeter.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">oximeter_p8.log</t>
+    <t xml:space="preserve">oximeter_P2.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P8_ecg.launch</t>
+    <t xml:space="preserve">P2_ecg.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">ecg_p8.log</t>
+    <t xml:space="preserve">ecg_P2.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P8_thermometer.launch</t>
+    <t xml:space="preserve">P2_thermometer.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">thermometer_p8.log</t>
+    <t xml:space="preserve">thermometer_P2.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P9</t>
+    <t xml:space="preserve">P3</t>
   </si>
   <si>
-    <t xml:space="preserve">P9_oximeter.launch</t>
+    <t xml:space="preserve">P3_oximeter.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">oximeter_p9.log</t>
+    <t xml:space="preserve">oximeter_P3.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P9_ecg.launch</t>
+    <t xml:space="preserve">P3_ecg.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">ecg_p9.log</t>
+    <t xml:space="preserve">ecg_P3.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P9_thermometer.launch</t>
+    <t xml:space="preserve">P3_thermometer.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">thermometer_p9.log</t>
+    <t xml:space="preserve">thermometer_P3.log</t>
   </si>
   <si>
-    <t xml:space="preserve">P10</t>
+    <t xml:space="preserve">P4</t>
   </si>
   <si>
-    <t xml:space="preserve">P10_analyzer.launch</t>
+    <t xml:space="preserve">P4_analyzer.launch</t>
   </si>
   <si>
-    <t xml:space="preserve">p10.log</t>
+    <t xml:space="preserve">P4.log</t>
   </si>
   <si>
     <t xml:space="preserve">Analysis for all properties (including ROS::Node and ROS::Log processes)</t>
@@ -193,47 +193,19 @@
     <t xml:space="preserve">Analysis for each property (including ROS::Node and ROS::Log processes)</t>
   </si>
   <si>
-    <t xml:space="preserve">P7 (3 sensors, thus 6 processes)</t>
+    <t xml:space="preserve">P1 (3 sensors, thus 6 processes)</t>
   </si>
   <si>
-    <t xml:space="preserve">P8 (3 sensors, thus 6 processes)</t>
+    <t xml:space="preserve">P2 (3 sensors, thus 6 processes)</t>
   </si>
   <si>
-    <t xml:space="preserve">P9 (3 sensors, thus 6 processes)</t>
+    <t xml:space="preserve">P3 (3 sensors, thus 6 processes)</t>
   </si>
   <si>
-    <t xml:space="preserve">P10 (1 Centralhub, 2 processes)</t>
+    <t xml:space="preserve">P4 (1 Centralhub, 2 processes)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">549.4538 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.4718592</t>
-    </r>
+    <t xml:space="preserve">549.4538 ± 0.4718592</t>
   </si>
 </sst>
 </file>
@@ -245,7 +217,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,12 +254,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -354,7 +320,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,10 +354,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,8 +453,8 @@
   </sheetPr>
   <dimension ref="A1:DK89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9305,7 +9267,7 @@
       <c r="C38" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="6" t="n">
         <v>549.4538</v>
       </c>
       <c r="E38" s="5"/>
@@ -9880,8 +9842,8 @@
       <c r="DK42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -9996,7 +9958,7 @@
       <c r="DK43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
@@ -10163,8 +10125,8 @@
         <v>344.2475008</v>
       </c>
       <c r="P45" s="5" t="n">
-        <f aca="false">SUM(P4:P10)</f>
-        <v>5.2</v>
+        <f aca="false">SUM(P4:P4)</f>
+        <v>0</v>
       </c>
       <c r="Q45" s="5" t="n">
         <f aca="false">SUM(Q4:Q10)</f>
@@ -10261,8 +10223,8 @@
         <v>205.1014656</v>
       </c>
       <c r="AP45" s="5" t="n">
-        <f aca="false">SUM(AP4:AP10)</f>
-        <v>2.7</v>
+        <f aca="false">SUM(AP4:AP4)</f>
+        <v>0</v>
       </c>
       <c r="AQ45" s="5" t="n">
         <f aca="false">SUM(AQ4:AQ10)</f>
@@ -10365,8 +10327,8 @@
         <v>205.4160384</v>
       </c>
       <c r="BP45" s="5" t="n">
-        <f aca="false">SUM(BP4:BP10)</f>
-        <v>1.5</v>
+        <f aca="false">SUM(BP4:BP4)</f>
+        <v>0</v>
       </c>
       <c r="BQ45" s="5" t="n">
         <f aca="false">SUM(BQ4:BQ10)</f>
@@ -10466,8 +10428,8 @@
         <v>4.4</v>
       </c>
       <c r="CP45" s="5" t="n">
-        <f aca="false">SUM(CP4:CP10)</f>
-        <v>204.6820352</v>
+        <f aca="false">SUM(CP4:CP4)</f>
+        <v>0</v>
       </c>
       <c r="CQ45" s="5" t="n">
         <f aca="false">SUM(CQ4:CQ10)</f>
@@ -10569,7 +10531,7 @@
       </c>
       <c r="P46" s="5" t="n">
         <f aca="false">AVERAGE(P45,R45,T45,V45,X45)</f>
-        <v>3.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -10603,7 +10565,7 @@
       </c>
       <c r="AL46" s="5" t="n">
         <f aca="false">AVERAGE(AL45,AN45,AP45,AR45,AT45)</f>
-        <v>3.02</v>
+        <v>2.48</v>
       </c>
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
@@ -10637,7 +10599,7 @@
       </c>
       <c r="BH46" s="5" t="n">
         <f aca="false">AVERAGE(BH45,BJ45,BL45,BN45,BP45)</f>
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="BI46" s="5"/>
       <c r="BJ46" s="5"/>
@@ -10684,7 +10646,7 @@
       <c r="CM46" s="5"/>
       <c r="CN46" s="5" t="n">
         <f aca="false">AVERAGE(CN45,CP45,CR45,CT45,CV45)</f>
-        <v>232.51124224</v>
+        <v>191.5748352</v>
       </c>
       <c r="CO46" s="5" t="n">
         <f aca="false">AVERAGE(CO45,CQ45,CS45,CU45,CW45)</f>
@@ -10746,7 +10708,7 @@
       </c>
       <c r="P47" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(P45,R45,T45,V45,X45)</f>
-        <v>1.33154046127033</v>
+        <v>1.27161314872095</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -10780,7 +10742,7 @@
       </c>
       <c r="AL47" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(AL45,AN45,AP45,AR45,AT45)</f>
-        <v>1.28530152104477</v>
+        <v>1.88202019117755</v>
       </c>
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
@@ -10814,7 +10776,7 @@
       </c>
       <c r="BH47" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(BH45,BJ45,BL45,BN45,BP45)</f>
-        <v>1.18869676536954</v>
+        <v>1.63033738839542</v>
       </c>
       <c r="BI47" s="5"/>
       <c r="BJ47" s="5"/>
@@ -10861,7 +10823,7 @@
       <c r="CM47" s="5"/>
       <c r="CN47" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(CN45,CP45,CR45,CT45,CV45)</f>
-        <v>62.2279987013557</v>
+        <v>122.879372949952</v>
       </c>
       <c r="CO47" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(CO45,CQ45,CS45,CU45,CW45)</f>
@@ -11016,11 +10978,11 @@
       </c>
       <c r="D49" s="5" t="n">
         <f aca="false">AVERAGE(D46,O46,Z46,AK46,AV46,BG46,BR46,CC46,CN46,CY46)</f>
-        <v>224.46866432</v>
+        <v>220.375023616</v>
       </c>
       <c r="E49" s="5" t="n">
         <f aca="false">AVERAGE(E46,P46,AA46,AL46,AW46,BH46,BS46,CD46,CO46,CZ46)</f>
-        <v>2.826</v>
+        <v>2.638</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -11139,11 +11101,11 @@
       </c>
       <c r="D50" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(D46,O46,Z46,AK46,AV46,BG46,BR46,CC46,CN46,CY46)</f>
-        <v>43.65685784136</v>
+        <v>44.7251273169649</v>
       </c>
       <c r="E50" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(E46,P46,AA46,AL46,AW46,BH46,BS46,CD46,CO46,CZ46)</f>
-        <v>0.290600909993222</v>
+        <v>0.384875160134931</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -11262,7 +11224,7 @@
       </c>
       <c r="D51" s="8" t="n">
         <f aca="false">D49/D38</f>
-        <v>0.408530552195653</v>
+        <v>0.401080170190833</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -11382,7 +11344,7 @@
       </c>
       <c r="D52" s="8" t="n">
         <f aca="false">D50/D38</f>
-        <v>0.0794550112154288</v>
+        <v>0.0813992501589121</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -15410,7 +15372,7 @@
         <v>59.05580032</v>
       </c>
       <c r="P76" s="5" t="n">
-        <f aca="false">AVERAGE(P75,R75,T75,V75,X75)</f>
+        <f aca="false">AVERAGE(P15,R75,T75,V75,X75)</f>
         <v>0.84</v>
       </c>
       <c r="Q76" s="5"/>
@@ -15444,8 +15406,8 @@
         <v>68.28326912</v>
       </c>
       <c r="AL76" s="5" t="n">
-        <f aca="false">AVERAGE(AL75,AN75,AP75,AR75,AT75)</f>
-        <v>0.8</v>
+        <f aca="false">AVERAGE(AL75,AN75,AP15,AR75,AT75)</f>
+        <v>0.78</v>
       </c>
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
@@ -15478,8 +15440,8 @@
         <v>68.2622976</v>
       </c>
       <c r="BH76" s="5" t="n">
-        <f aca="false">AVERAGE(BH75,BJ75,BL75,BN75,BP75)</f>
-        <v>1.02</v>
+        <f aca="false">AVERAGE(BH75,BJ75,BL75,BN75,BP15)</f>
+        <v>0.96</v>
       </c>
       <c r="BI76" s="5"/>
       <c r="BJ76" s="5"/>
@@ -15525,8 +15487,8 @@
       <c r="CL76" s="5"/>
       <c r="CM76" s="5"/>
       <c r="CN76" s="5" t="n">
-        <f aca="false">AVERAGE(CN75,CP75,CR75,CT75,CV75)</f>
-        <v>58.95094272</v>
+        <f aca="false">AVERAGE(CN75,CP15,CR75,CT75,CV75)</f>
+        <v>56.76990464</v>
       </c>
       <c r="CO76" s="5" t="n">
         <f aca="false">AVERAGE(CO75,CQ75,CS75,CU75,CW75)</f>
@@ -15587,7 +15549,7 @@
         <v>20.7626521168513</v>
       </c>
       <c r="P77" s="5" t="n">
-        <f aca="false">_xlfn.STDEV.S(P75,R75,T75,V75,X75)</f>
+        <f aca="false">_xlfn.STDEV.S(P15,R75,T75,V75,X75)</f>
         <v>0.364691650576209</v>
       </c>
       <c r="Q77" s="5"/>
@@ -15621,8 +15583,8 @@
         <v>0.27141716795551</v>
       </c>
       <c r="AL77" s="5" t="n">
-        <f aca="false">_xlfn.STDEV.S(AL75,AN75,AP75,AR75,AT75)</f>
-        <v>0.316227766016838</v>
+        <f aca="false">_xlfn.STDEV.S(AL75,AN75,AP15,AR75,AT75)</f>
+        <v>0.327108544675923</v>
       </c>
       <c r="AM77" s="5"/>
       <c r="AN77" s="5"/>
@@ -15655,8 +15617,8 @@
         <v>0</v>
       </c>
       <c r="BH77" s="5" t="n">
-        <f aca="false">_xlfn.STDEV.S(BH75,BJ75,BL75,BN75,BP75)</f>
-        <v>0.414728827066554</v>
+        <f aca="false">_xlfn.STDEV.S(BH75,BJ75,BL75,BN75,BP15)</f>
+        <v>0.487852436706019</v>
       </c>
       <c r="BI77" s="5"/>
       <c r="BJ77" s="5"/>
@@ -15702,8 +15664,8 @@
       <c r="CL77" s="5"/>
       <c r="CM77" s="5"/>
       <c r="CN77" s="5" t="n">
-        <f aca="false">_xlfn.STDEV.S(CN75,CP75,CR75,CT75,CV75)</f>
-        <v>20.8208224743044</v>
+        <f aca="false">_xlfn.STDEV.S(CN75,CP15,CR75,CT75,CV75)</f>
+        <v>20.1623469644376</v>
       </c>
       <c r="CO77" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(CO75,CQ75,CS75,CU75,CW75)</f>
@@ -15858,11 +15820,11 @@
       </c>
       <c r="D79" s="5" t="n">
         <f aca="false">AVERAGE(D76,O76,Z76,AK76,AV76,BG76,BR76,CC76,CN76,CY76)</f>
-        <v>61.868081152</v>
+        <v>61.649977344</v>
       </c>
       <c r="E79" s="5" t="n">
-        <f aca="false">AVERAGE(E76,P76,AA76,AL76,AW76,BH76,BS76,CD76,CO76,CZ76)</f>
-        <v>0.88</v>
+        <f aca="false">AVERAGE(E76,P16,AA76,AL76,AW76,BH76,BS76,CD76,CO76,CZ76)</f>
+        <v>0.808</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -15981,11 +15943,11 @@
       </c>
       <c r="D80" s="5" t="n">
         <f aca="false">_xlfn.STDEV.S(D76,O76,Z76,AK76,AV76,BG76,BR76,CC76,CN76,CY76)</f>
-        <v>14.6019267139906</v>
+        <v>14.6664863180282</v>
       </c>
       <c r="E80" s="5" t="n">
-        <f aca="false">_xlfn.STDEV.S(E76,P76,AA76,AL76,AW76,BH76,BS76,CD76,CO76,CZ76)</f>
-        <v>0.0938083151964686</v>
+        <f aca="false">_xlfn.STDEV.S(E76,P16,AA76,AL76,AW76,BH76,BS76,CD76,CO76,CZ76)</f>
+        <v>0.230593437316272</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -16104,7 +16066,7 @@
       </c>
       <c r="D81" s="8" t="n">
         <f aca="false">D79/D38</f>
-        <v>0.112599241559527</v>
+        <v>0.112202294977303</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -16224,7 +16186,7 @@
       </c>
       <c r="D82" s="8" t="n">
         <f aca="false">D80/D38</f>
-        <v>0.0265753493996958</v>
+        <v>0.0266928471839274</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -16453,13 +16415,13 @@
       <c r="DK83" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="0" t="s">
@@ -16467,53 +16429,53 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="13" t="str">
-        <f aca="false">CONCATENATE(224.47,  "±" , 43.66 )</f>
-        <v>224.47±43.66</v>
-      </c>
-      <c r="E86" s="13" t="str">
+      <c r="D86" s="12" t="str">
+        <f aca="false">CONCATENATE(ROUND(D51*10000,0)/100,"±" , ROUND(D52*10000,0)/100)</f>
+        <v>40,11±8,14</v>
+      </c>
+      <c r="E86" s="12" t="str">
         <f aca="false">CONCATENATE(2.83 ,  "±" , 0.29 )</f>
         <v>2.83±0.29</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="13" t="str">
-        <f aca="false">CONCATENATE(211.33 ,  "±" , 14.54 )</f>
-        <v>211.33±14.54</v>
-      </c>
-      <c r="E87" s="13" t="str">
+      <c r="D87" s="12" t="str">
+        <f aca="false">CONCATENATE(ROUND(D61*10000,0)/100,"±" , ROUND(D62*10000,0)/100)</f>
+        <v>38,46±2,65</v>
+      </c>
+      <c r="E87" s="12" t="str">
         <f aca="false">CONCATENATE(2.76 ,  "±" , 0.1 )</f>
         <v>2.76±0.1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="13" t="str">
-        <f aca="false">CONCATENATE(185.21 ,  "±" , 43.59 )</f>
-        <v>185.21±43.59</v>
-      </c>
-      <c r="E88" s="13" t="str">
+      <c r="D88" s="12" t="str">
+        <f aca="false">CONCATENATE(ROUND(D71*10000,0)/100,"±" , ROUND(D72*10000,0)/100)</f>
+        <v>33,71±7,93</v>
+      </c>
+      <c r="E88" s="12" t="str">
         <f aca="false">CONCATENATE(2.68 ,  "±" , 0.12 )</f>
         <v>2.68±0.12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D89" s="13" t="str">
-        <f aca="false">CONCATENATE(61.87 ,  "±" , 14.6 )</f>
-        <v>61.87±14.6</v>
-      </c>
-      <c r="E89" s="13" t="str">
+      <c r="D89" s="12" t="str">
+        <f aca="false">CONCATENATE(ROUND(D81*10000,0)/100,"±" , ROUND(D82*10000,0)/100)</f>
+        <v>11,22±2,67</v>
+      </c>
+      <c r="E89" s="12" t="str">
         <f aca="false">CONCATENATE(0.88 ,  "±" , 0.09 )</f>
         <v>0.88±0.09</v>
       </c>
